--- a/group1/第一组项目进度表.xlsx
+++ b/group1/第一组项目进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -54,6 +54,9 @@
     <t>购物车进行50%</t>
   </si>
   <si>
+    <t>二级菜单完成，登录注册界面完成</t>
+  </si>
+  <si>
     <t>郑则栋</t>
   </si>
   <si>
@@ -69,21 +72,27 @@
     <t>登录注册</t>
   </si>
   <si>
+    <t xml:space="preserve">项目进度：静态首页 </t>
+  </si>
+  <si>
     <t>陆凤妹</t>
   </si>
   <si>
-    <t>女性时尚品牌</t>
-  </si>
-  <si>
-    <t>https://cn.shopbop.com/</t>
-  </si>
-  <si>
-    <t>首页布局完成</t>
+    <t xml:space="preserve">酒仙网   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.jiuxian.com/</t>
+  </si>
+  <si>
+    <t>首页上下布局完成</t>
   </si>
   <si>
     <t>登录、注册基本布局完成，</t>
   </si>
   <si>
+    <t>登录、注册、首页顶部、底部完成，首页导航栏布局完成一半</t>
+  </si>
+  <si>
     <t>张朋伟</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
     <t>登录完成</t>
   </si>
   <si>
+    <t>轮播楼梯完成</t>
+  </si>
+  <si>
     <t>钱广荣</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t xml:space="preserve">倒计时，回到顶部，顶部悬浮功能 </t>
   </si>
   <si>
+    <t>登录注册活动页布局，购物车部分布局，及登录注册部分代码</t>
+  </si>
+  <si>
     <t>刘彪</t>
   </si>
   <si>
@@ -126,6 +141,9 @@
     <t>开始功能模块实现</t>
   </si>
   <si>
+    <t>进度:布局完成,js动画添加完成</t>
+  </si>
+  <si>
     <t>高展飞</t>
   </si>
   <si>
@@ -141,6 +159,9 @@
     <t>轮播图完成</t>
   </si>
   <si>
+    <t>首页基本完成  轮播十个完成</t>
+  </si>
+  <si>
     <t>李红霞</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
   </si>
   <si>
     <t>轮播图，楼梯，懒加载，ajax请求动态布局</t>
+  </si>
+  <si>
+    <t>免登陆部分完成，购物车部分完成</t>
   </si>
   <si>
     <t>韩卫静</t>
@@ -172,6 +196,9 @@
 </t>
   </si>
   <si>
+    <t>页面布局基本完善，详情页加购，点击购物车页面显示列表</t>
+  </si>
+  <si>
     <t>尹亚亭</t>
   </si>
   <si>
@@ -181,12 +208,15 @@
     <t xml:space="preserve"> http://www.shangpin.com/</t>
   </si>
   <si>
-    <t>尹亚亭项目进度：主页布局完成，</t>
+    <t>：主页布局完成，</t>
   </si>
   <si>
     <t>实现的特效有轮播图和楼梯；商品页的布局完成，实现的功能是列表渲染</t>
   </si>
   <si>
+    <t>登录注册页面布局和功能实现</t>
+  </si>
+  <si>
     <t>徐佳伟</t>
   </si>
   <si>
@@ -202,6 +232,9 @@
     <t>主页布局 渲染基本完成</t>
   </si>
   <si>
+    <t>商品列表渲染完成 放大镜效果实现</t>
+  </si>
+  <si>
     <t>李策</t>
   </si>
   <si>
@@ -214,6 +247,9 @@
     <t>jsonp渲染</t>
   </si>
   <si>
+    <t>字符串拼接、楼梯、布局</t>
+  </si>
+  <si>
     <t>文俊豪</t>
   </si>
   <si>
@@ -227,6 +263,9 @@
   </si>
   <si>
     <t>主页列表完成</t>
+  </si>
+  <si>
+    <t>详情页 放大镜 20%</t>
   </si>
 </sst>
 </file>
@@ -270,6 +309,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -285,7 +340,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,20 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -322,77 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,49 +446,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,127 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,30 +637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,6 +651,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,16 +706,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +731,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,16 +755,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,112 +776,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1228,7 +1267,9 @@
     <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="47.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1300,7 +1341,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:9">
+    <row r="3" ht="18" spans="1:11">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1325,314 +1366,395 @@
       <c r="I3" s="1">
         <v>35</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>40</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>40</v>
       </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" ht="18" spans="1:9">
+    <row r="8" ht="18" spans="1:11">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1">
         <v>35</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1">
         <v>35</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1">
         <v>40</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" ht="40.5" spans="1:9">
+    <row r="11" ht="40.5" spans="1:11">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1">
         <v>45</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1">
         <v>35</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1">
         <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1">
         <v>35</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1">
         <v>35</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1">
         <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1">
         <v>35</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1">
         <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I15" s="1">
         <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/group1/第一组项目进度表.xlsx
+++ b/group1/第一组项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25695" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>序号</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">项目进度：静态首页 </t>
   </si>
   <si>
+    <t>楼梯完成shopcarts开始</t>
+  </si>
+  <si>
     <t>陆凤妹</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t>登录、注册、首页顶部、底部完成，首页导航栏布局完成一半</t>
   </si>
   <si>
+    <t>导航布局完成，开始购物车</t>
+  </si>
+  <si>
     <t>张朋伟</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
     <t>轮播楼梯完成</t>
   </si>
   <si>
+    <t>购物车进行中</t>
+  </si>
+  <si>
     <t>钱广荣</t>
   </si>
   <si>
@@ -129,6 +138,9 @@
     <t>登录注册活动页布局，购物车部分布局，及登录注册部分代码</t>
   </si>
   <si>
+    <t>活动页面60%，完成瀑布流，登陆注册90%调试BUG中</t>
+  </si>
+  <si>
     <t>刘彪</t>
   </si>
   <si>
@@ -144,6 +156,9 @@
     <t>进度:布局完成,js动画添加完成</t>
   </si>
   <si>
+    <t>:75%,已经添加登录注册,详情页,放大镜等功能</t>
+  </si>
+  <si>
     <t>高展飞</t>
   </si>
   <si>
@@ -162,6 +177,9 @@
     <t>首页基本完成  轮播十个完成</t>
   </si>
   <si>
+    <t>banner，楼梯，放大镜   详情页写一半</t>
+  </si>
+  <si>
     <t>李红霞</t>
   </si>
   <si>
@@ -178,6 +196,9 @@
   </si>
   <si>
     <t>免登陆部分完成，购物车部分完成</t>
+  </si>
+  <si>
+    <t>活动页基本完成，详情页基本完成</t>
   </si>
   <si>
     <t>韩卫静</t>
@@ -199,6 +220,9 @@
     <t>页面布局基本完善，详情页加购，点击购物车页面显示列表</t>
   </si>
   <si>
+    <t>楼梯功能，登录注册的验证，免登陆和退出登录</t>
+  </si>
+  <si>
     <t>尹亚亭</t>
   </si>
   <si>
@@ -217,6 +241,9 @@
     <t>登录注册页面布局和功能实现</t>
   </si>
   <si>
+    <t>商品详情页，购物车页面布局完成；30</t>
+  </si>
+  <si>
     <t>徐佳伟</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>商品列表渲染完成 放大镜效果实现</t>
   </si>
   <si>
+    <t xml:space="preserve">购物车基本功能完成 目前完成率65% </t>
+  </si>
+  <si>
     <t>李策</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>字符串拼接、楼梯、布局</t>
   </si>
   <si>
+    <t>详情页完成</t>
+  </si>
+  <si>
     <t>文俊豪</t>
   </si>
   <si>
@@ -266,6 +299,9 @@
   </si>
   <si>
     <t>详情页 放大镜 20%</t>
+  </si>
+  <si>
+    <t>详情页 放大镜 40%</t>
   </si>
 </sst>
 </file>
@@ -273,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,6 +345,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -324,118 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -446,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +673,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,84 +773,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,133 +791,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,7 +1290,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,7 +1305,9 @@
     <col min="8" max="8" width="47.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="24.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1341,7 +1379,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:11">
+    <row r="3" ht="18" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1372,8 +1410,14 @@
       <c r="K3" s="1">
         <v>35</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1404,357 +1448,426 @@
       <c r="K4" s="1">
         <v>70</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1">
         <v>40</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>35</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1">
         <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1">
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1">
         <v>35</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" ht="18" spans="1:11">
+    <row r="8" ht="18" spans="1:13">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1">
         <v>35</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1">
         <v>35</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1">
         <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1">
         <v>35</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" ht="40.5" spans="1:11">
+    <row r="11" ht="40.5" spans="1:13">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1">
         <v>45</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
         <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1">
         <v>25</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1">
         <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1">
         <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1">
         <v>30</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1">
         <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1">
         <v>30</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I14" s="1">
         <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K14" s="1">
         <v>30</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1">
         <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1">
         <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K15" s="1">
         <v>35</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
